--- a/analisis/analisis_pierre.xlsx
+++ b/analisis/analisis_pierre.xlsx
@@ -2620,6 +2620,30 @@
       <c r="A2" t="str">
         <v>DEPARTAMENTO: TALENTO HUMANO</v>
       </c>
+      <c r="B2" t="str">
+        <v/>
+      </c>
+      <c r="C2" t="str">
+        <v/>
+      </c>
+      <c r="D2" t="str">
+        <v/>
+      </c>
+      <c r="E2" t="str">
+        <v/>
+      </c>
+      <c r="F2" t="str">
+        <v/>
+      </c>
+      <c r="G2" t="str">
+        <v/>
+      </c>
+      <c r="H2" t="str">
+        <v/>
+      </c>
+      <c r="I2" t="str">
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -4771,6 +4795,30 @@
       <c r="A77" t="str">
         <v>DEPARTAMENTO: ÁREAS PÚBLICAS</v>
       </c>
+      <c r="B77" t="str">
+        <v/>
+      </c>
+      <c r="C77" t="str">
+        <v/>
+      </c>
+      <c r="D77" t="str">
+        <v/>
+      </c>
+      <c r="E77" t="str">
+        <v/>
+      </c>
+      <c r="F77" t="str">
+        <v/>
+      </c>
+      <c r="G77" t="str">
+        <v/>
+      </c>
+      <c r="H77" t="str">
+        <v/>
+      </c>
+      <c r="I77" t="str">
+        <v/>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
@@ -6922,6 +6970,30 @@
       <c r="A152" t="str">
         <v>DEPARTAMENTO: BANQUETES</v>
       </c>
+      <c r="B152" t="str">
+        <v/>
+      </c>
+      <c r="C152" t="str">
+        <v/>
+      </c>
+      <c r="D152" t="str">
+        <v/>
+      </c>
+      <c r="E152" t="str">
+        <v/>
+      </c>
+      <c r="F152" t="str">
+        <v/>
+      </c>
+      <c r="G152" t="str">
+        <v/>
+      </c>
+      <c r="H152" t="str">
+        <v/>
+      </c>
+      <c r="I152" t="str">
+        <v/>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
@@ -9073,6 +9145,30 @@
       <c r="A227" t="str">
         <v>DEPARTAMENTO: TERRAZA</v>
       </c>
+      <c r="B227" t="str">
+        <v/>
+      </c>
+      <c r="C227" t="str">
+        <v/>
+      </c>
+      <c r="D227" t="str">
+        <v/>
+      </c>
+      <c r="E227" t="str">
+        <v/>
+      </c>
+      <c r="F227" t="str">
+        <v/>
+      </c>
+      <c r="G227" t="str">
+        <v/>
+      </c>
+      <c r="H227" t="str">
+        <v/>
+      </c>
+      <c r="I227" t="str">
+        <v/>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
@@ -11224,6 +11320,30 @@
       <c r="A302" t="str">
         <v>DEPARTAMENTO: AMA DE LLAVES</v>
       </c>
+      <c r="B302" t="str">
+        <v/>
+      </c>
+      <c r="C302" t="str">
+        <v/>
+      </c>
+      <c r="D302" t="str">
+        <v/>
+      </c>
+      <c r="E302" t="str">
+        <v/>
+      </c>
+      <c r="F302" t="str">
+        <v/>
+      </c>
+      <c r="G302" t="str">
+        <v/>
+      </c>
+      <c r="H302" t="str">
+        <v/>
+      </c>
+      <c r="I302" t="str">
+        <v/>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="str">
@@ -13375,6 +13495,30 @@
       <c r="A377" t="str">
         <v>DEPARTAMENTO: MANTENIMIENTO</v>
       </c>
+      <c r="B377" t="str">
+        <v/>
+      </c>
+      <c r="C377" t="str">
+        <v/>
+      </c>
+      <c r="D377" t="str">
+        <v/>
+      </c>
+      <c r="E377" t="str">
+        <v/>
+      </c>
+      <c r="F377" t="str">
+        <v/>
+      </c>
+      <c r="G377" t="str">
+        <v/>
+      </c>
+      <c r="H377" t="str">
+        <v/>
+      </c>
+      <c r="I377" t="str">
+        <v/>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="str">
@@ -15526,6 +15670,30 @@
       <c r="A452" t="str">
         <v>DEPARTAMENTO: POOL / BEACH</v>
       </c>
+      <c r="B452" t="str">
+        <v/>
+      </c>
+      <c r="C452" t="str">
+        <v/>
+      </c>
+      <c r="D452" t="str">
+        <v/>
+      </c>
+      <c r="E452" t="str">
+        <v/>
+      </c>
+      <c r="F452" t="str">
+        <v/>
+      </c>
+      <c r="G452" t="str">
+        <v/>
+      </c>
+      <c r="H452" t="str">
+        <v/>
+      </c>
+      <c r="I452" t="str">
+        <v/>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="str">
@@ -17561,6 +17729,30 @@
       <c r="A523" t="str">
         <v>DEPARTAMENTO: A_B STEWARDS</v>
       </c>
+      <c r="B523" t="str">
+        <v/>
+      </c>
+      <c r="C523" t="str">
+        <v/>
+      </c>
+      <c r="D523" t="str">
+        <v/>
+      </c>
+      <c r="E523" t="str">
+        <v/>
+      </c>
+      <c r="F523" t="str">
+        <v/>
+      </c>
+      <c r="G523" t="str">
+        <v/>
+      </c>
+      <c r="H523" t="str">
+        <v/>
+      </c>
+      <c r="I523" t="str">
+        <v/>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="str">
@@ -19712,6 +19904,30 @@
       <c r="A598" t="str">
         <v>DEPARTAMENTO: GERENCIA GENERAL</v>
       </c>
+      <c r="B598" t="str">
+        <v/>
+      </c>
+      <c r="C598" t="str">
+        <v/>
+      </c>
+      <c r="D598" t="str">
+        <v/>
+      </c>
+      <c r="E598" t="str">
+        <v/>
+      </c>
+      <c r="F598" t="str">
+        <v/>
+      </c>
+      <c r="G598" t="str">
+        <v/>
+      </c>
+      <c r="H598" t="str">
+        <v/>
+      </c>
+      <c r="I598" t="str">
+        <v/>
+      </c>
     </row>
     <row r="599">
       <c r="A599" t="str">
@@ -21863,6 +22079,30 @@
       <c r="A673" t="str">
         <v>DEPARTAMENTO: SEGURIDAD</v>
       </c>
+      <c r="B673" t="str">
+        <v/>
+      </c>
+      <c r="C673" t="str">
+        <v/>
+      </c>
+      <c r="D673" t="str">
+        <v/>
+      </c>
+      <c r="E673" t="str">
+        <v/>
+      </c>
+      <c r="F673" t="str">
+        <v/>
+      </c>
+      <c r="G673" t="str">
+        <v/>
+      </c>
+      <c r="H673" t="str">
+        <v/>
+      </c>
+      <c r="I673" t="str">
+        <v/>
+      </c>
     </row>
     <row r="674">
       <c r="A674" t="str">
@@ -24014,6 +24254,30 @@
       <c r="A748" t="str">
         <v>DEPARTAMENTO: CAMARISTAS</v>
       </c>
+      <c r="B748" t="str">
+        <v/>
+      </c>
+      <c r="C748" t="str">
+        <v/>
+      </c>
+      <c r="D748" t="str">
+        <v/>
+      </c>
+      <c r="E748" t="str">
+        <v/>
+      </c>
+      <c r="F748" t="str">
+        <v/>
+      </c>
+      <c r="G748" t="str">
+        <v/>
+      </c>
+      <c r="H748" t="str">
+        <v/>
+      </c>
+      <c r="I748" t="str">
+        <v/>
+      </c>
     </row>
     <row r="749">
       <c r="A749" t="str">
@@ -26049,6 +26313,30 @@
       <c r="A819" t="str">
         <v>DEPARTAMENTO: CAFÉ PIERRE</v>
       </c>
+      <c r="B819" t="str">
+        <v/>
+      </c>
+      <c r="C819" t="str">
+        <v/>
+      </c>
+      <c r="D819" t="str">
+        <v/>
+      </c>
+      <c r="E819" t="str">
+        <v/>
+      </c>
+      <c r="F819" t="str">
+        <v/>
+      </c>
+      <c r="G819" t="str">
+        <v/>
+      </c>
+      <c r="H819" t="str">
+        <v/>
+      </c>
+      <c r="I819" t="str">
+        <v/>
+      </c>
     </row>
     <row r="820">
       <c r="A820" t="str">
@@ -28200,6 +28488,30 @@
       <c r="A894" t="str">
         <v>DEPARTAMENTO: SERVICIO UNIFORMADO</v>
       </c>
+      <c r="B894" t="str">
+        <v/>
+      </c>
+      <c r="C894" t="str">
+        <v/>
+      </c>
+      <c r="D894" t="str">
+        <v/>
+      </c>
+      <c r="E894" t="str">
+        <v/>
+      </c>
+      <c r="F894" t="str">
+        <v/>
+      </c>
+      <c r="G894" t="str">
+        <v/>
+      </c>
+      <c r="H894" t="str">
+        <v/>
+      </c>
+      <c r="I894" t="str">
+        <v/>
+      </c>
     </row>
     <row r="895">
       <c r="A895" t="str">
@@ -30351,6 +30663,30 @@
       <c r="A969" t="str">
         <v>DEPARTAMENTO: KIDS CLUB</v>
       </c>
+      <c r="B969" t="str">
+        <v/>
+      </c>
+      <c r="C969" t="str">
+        <v/>
+      </c>
+      <c r="D969" t="str">
+        <v/>
+      </c>
+      <c r="E969" t="str">
+        <v/>
+      </c>
+      <c r="F969" t="str">
+        <v/>
+      </c>
+      <c r="G969" t="str">
+        <v/>
+      </c>
+      <c r="H969" t="str">
+        <v/>
+      </c>
+      <c r="I969" t="str">
+        <v/>
+      </c>
     </row>
     <row r="970">
       <c r="A970" t="str">
@@ -32502,6 +32838,30 @@
       <c r="A1044" t="str">
         <v>DEPARTAMENTO: SPA</v>
       </c>
+      <c r="B1044" t="str">
+        <v/>
+      </c>
+      <c r="C1044" t="str">
+        <v/>
+      </c>
+      <c r="D1044" t="str">
+        <v/>
+      </c>
+      <c r="E1044" t="str">
+        <v/>
+      </c>
+      <c r="F1044" t="str">
+        <v/>
+      </c>
+      <c r="G1044" t="str">
+        <v/>
+      </c>
+      <c r="H1044" t="str">
+        <v/>
+      </c>
+      <c r="I1044" t="str">
+        <v/>
+      </c>
     </row>
     <row r="1045">
       <c r="A1045" t="str">
@@ -34653,6 +35013,30 @@
       <c r="A1119" t="str">
         <v>DEPARTAMENTO: CAFETERÍA DE EMPLEADOS</v>
       </c>
+      <c r="B1119" t="str">
+        <v/>
+      </c>
+      <c r="C1119" t="str">
+        <v/>
+      </c>
+      <c r="D1119" t="str">
+        <v/>
+      </c>
+      <c r="E1119" t="str">
+        <v/>
+      </c>
+      <c r="F1119" t="str">
+        <v/>
+      </c>
+      <c r="G1119" t="str">
+        <v/>
+      </c>
+      <c r="H1119" t="str">
+        <v/>
+      </c>
+      <c r="I1119" t="str">
+        <v/>
+      </c>
     </row>
     <row r="1120">
       <c r="A1120" t="str">
@@ -36688,6 +37072,30 @@
       <c r="A1190" t="str">
         <v>DEPARTAMENTO: A_B COCINAS</v>
       </c>
+      <c r="B1190" t="str">
+        <v/>
+      </c>
+      <c r="C1190" t="str">
+        <v/>
+      </c>
+      <c r="D1190" t="str">
+        <v/>
+      </c>
+      <c r="E1190" t="str">
+        <v/>
+      </c>
+      <c r="F1190" t="str">
+        <v/>
+      </c>
+      <c r="G1190" t="str">
+        <v/>
+      </c>
+      <c r="H1190" t="str">
+        <v/>
+      </c>
+      <c r="I1190" t="str">
+        <v/>
+      </c>
     </row>
     <row r="1191">
       <c r="A1191" t="str">
@@ -38839,6 +39247,30 @@
       <c r="A1265" t="str">
         <v>DEPARTAMENTO: RECEPCIÓN</v>
       </c>
+      <c r="B1265" t="str">
+        <v/>
+      </c>
+      <c r="C1265" t="str">
+        <v/>
+      </c>
+      <c r="D1265" t="str">
+        <v/>
+      </c>
+      <c r="E1265" t="str">
+        <v/>
+      </c>
+      <c r="F1265" t="str">
+        <v/>
+      </c>
+      <c r="G1265" t="str">
+        <v/>
+      </c>
+      <c r="H1265" t="str">
+        <v/>
+      </c>
+      <c r="I1265" t="str">
+        <v/>
+      </c>
     </row>
     <row r="1266">
       <c r="A1266" t="str">
@@ -40990,6 +41422,30 @@
       <c r="A1340" t="str">
         <v>DEPARTAMENTO: CONTABILIDAD</v>
       </c>
+      <c r="B1340" t="str">
+        <v/>
+      </c>
+      <c r="C1340" t="str">
+        <v/>
+      </c>
+      <c r="D1340" t="str">
+        <v/>
+      </c>
+      <c r="E1340" t="str">
+        <v/>
+      </c>
+      <c r="F1340" t="str">
+        <v/>
+      </c>
+      <c r="G1340" t="str">
+        <v/>
+      </c>
+      <c r="H1340" t="str">
+        <v/>
+      </c>
+      <c r="I1340" t="str">
+        <v/>
+      </c>
     </row>
     <row r="1341">
       <c r="A1341" t="str">
@@ -43025,6 +43481,30 @@
       <c r="A1411" t="str">
         <v>DEPARTAMENTO: IRD</v>
       </c>
+      <c r="B1411" t="str">
+        <v/>
+      </c>
+      <c r="C1411" t="str">
+        <v/>
+      </c>
+      <c r="D1411" t="str">
+        <v/>
+      </c>
+      <c r="E1411" t="str">
+        <v/>
+      </c>
+      <c r="F1411" t="str">
+        <v/>
+      </c>
+      <c r="G1411" t="str">
+        <v/>
+      </c>
+      <c r="H1411" t="str">
+        <v/>
+      </c>
+      <c r="I1411" t="str">
+        <v/>
+      </c>
     </row>
     <row r="1412">
       <c r="A1412" t="str">
@@ -45060,6 +45540,30 @@
       <c r="A1482" t="str">
         <v>DEPARTAMENTO: A_B ADMINISTRACIÓN</v>
       </c>
+      <c r="B1482" t="str">
+        <v/>
+      </c>
+      <c r="C1482" t="str">
+        <v/>
+      </c>
+      <c r="D1482" t="str">
+        <v/>
+      </c>
+      <c r="E1482" t="str">
+        <v/>
+      </c>
+      <c r="F1482" t="str">
+        <v/>
+      </c>
+      <c r="G1482" t="str">
+        <v/>
+      </c>
+      <c r="H1482" t="str">
+        <v/>
+      </c>
+      <c r="I1482" t="str">
+        <v/>
+      </c>
     </row>
     <row r="1483">
       <c r="A1483" t="str">
@@ -47211,6 +47715,30 @@
       <c r="A1557" t="str">
         <v>DEPARTAMENTO: BAR PIERRE</v>
       </c>
+      <c r="B1557" t="str">
+        <v/>
+      </c>
+      <c r="C1557" t="str">
+        <v/>
+      </c>
+      <c r="D1557" t="str">
+        <v/>
+      </c>
+      <c r="E1557" t="str">
+        <v/>
+      </c>
+      <c r="F1557" t="str">
+        <v/>
+      </c>
+      <c r="G1557" t="str">
+        <v/>
+      </c>
+      <c r="H1557" t="str">
+        <v/>
+      </c>
+      <c r="I1557" t="str">
+        <v/>
+      </c>
     </row>
     <row r="1558">
       <c r="A1558" t="str">
@@ -49245,6 +49773,30 @@
     <row r="1628">
       <c r="A1628" t="str">
         <v>DEPARTAMENTO: TABACHÍN</v>
+      </c>
+      <c r="B1628" t="str">
+        <v/>
+      </c>
+      <c r="C1628" t="str">
+        <v/>
+      </c>
+      <c r="D1628" t="str">
+        <v/>
+      </c>
+      <c r="E1628" t="str">
+        <v/>
+      </c>
+      <c r="F1628" t="str">
+        <v/>
+      </c>
+      <c r="G1628" t="str">
+        <v/>
+      </c>
+      <c r="H1628" t="str">
+        <v/>
+      </c>
+      <c r="I1628" t="str">
+        <v/>
       </c>
     </row>
     <row r="1629">
